--- a/forms/ModularBudget1-5YrProject.xlsx
+++ b/forms/ModularBudget1-5YrProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2010" windowWidth="15360" windowHeight="8775" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2010" windowWidth="21600" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="1YearProject" sheetId="1" r:id="rId1"/>
@@ -617,9 +617,6 @@
     <t>07/01/13 – Until notice:</t>
   </si>
   <si>
-    <t>Fringe Benefits Rate Non-Sponsored and Sponsored 07/01/2013-06/30/2014</t>
-  </si>
-  <si>
     <t>Restricted Rates</t>
   </si>
   <si>
@@ -711,6 +708,9 @@
       </rPr>
       <t xml:space="preserve">  No F&amp;A Allowed by Sponsor</t>
     </r>
+  </si>
+  <si>
+    <t>Fringe Benefits Rate Non-Sponsored and Sponsored 07/01/2014-06/30/2015</t>
   </si>
 </sst>
 </file>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P208"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1619,7 @@
         <v>109</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P1" s="68"/>
     </row>
@@ -1631,7 +1631,7 @@
         <v>99</v>
       </c>
       <c r="P2" s="70">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
         <v>100</v>
       </c>
       <c r="P3" s="70">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>49</v>
@@ -1695,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="46">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>50</v>
@@ -1712,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="44">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>51</v>
@@ -1729,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="46">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="O10" s="69" t="s">
         <v>105</v>
@@ -1784,7 +1784,7 @@
       <c r="B14" s="18"/>
       <c r="O14" s="69"/>
       <c r="P14" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B15" s="20"/>
       <c r="O15" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P15" s="79">
         <v>0.52</v>
@@ -1815,10 +1815,10 @@
         <v>5</v>
       </c>
       <c r="O16" s="78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" s="70">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17" s="70">
         <v>0.2</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P18" s="70">
         <v>0.1</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P19" s="70">
         <v>0.08</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P20" s="70">
         <v>0.05</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P21" s="76">
         <v>0</v>
@@ -3357,7 +3357,7 @@
   <dimension ref="A1:P208"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I1" s="53"/>
       <c r="O1" s="67" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P1" s="68"/>
     </row>
@@ -3399,7 +3399,7 @@
         <v>99</v>
       </c>
       <c r="P2" s="70">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3410,7 +3410,7 @@
         <v>100</v>
       </c>
       <c r="P3" s="70">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>49</v>
@@ -3467,7 +3467,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="46">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>50</v>
@@ -3486,7 +3486,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="44">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>51</v>
@@ -3505,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="46">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="O10" s="69" t="s">
         <v>105</v>
@@ -3562,7 +3562,7 @@
       <c r="B14" s="18"/>
       <c r="O14" s="69"/>
       <c r="P14" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B15" s="20"/>
       <c r="O15" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P15" s="79">
         <v>0.52</v>
@@ -3596,10 +3596,10 @@
         <v>75</v>
       </c>
       <c r="O16" s="78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" s="70">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17" s="70">
         <v>0.2</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P18" s="70">
         <v>0.1</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P19" s="70">
         <v>0.08</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P20" s="70">
         <v>0.05</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P21" s="76">
         <v>0</v>
@@ -5905,7 +5905,7 @@
   <dimension ref="A1:P208"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="I1" s="53"/>
       <c r="O1" s="67" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P1" s="68"/>
     </row>
@@ -5947,7 +5947,7 @@
         <v>99</v>
       </c>
       <c r="P2" s="70">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -5958,7 +5958,7 @@
         <v>100</v>
       </c>
       <c r="P3" s="70">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>49</v>
@@ -6019,7 +6019,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="46">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>50</v>
@@ -6040,7 +6040,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="44">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>51</v>
@@ -6061,7 +6061,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="46">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="O10" s="69" t="s">
         <v>105</v>
@@ -6120,7 +6120,7 @@
       <c r="B14" s="18"/>
       <c r="O14" s="69"/>
       <c r="P14" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B15" s="20"/>
       <c r="O15" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P15" s="79">
         <v>0.52</v>
@@ -6157,10 +6157,10 @@
         <v>83</v>
       </c>
       <c r="O16" s="78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" s="70">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17" s="70">
         <v>0.2</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P18" s="70">
         <v>0.1</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P19" s="70">
         <v>0.08</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P20" s="70">
         <v>0.05</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P21" s="76">
         <v>0</v>
@@ -9349,7 +9349,7 @@
   <dimension ref="A1:Q208"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="I1" s="53"/>
       <c r="P1" s="67" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="68"/>
     </row>
@@ -9392,7 +9392,7 @@
         <v>99</v>
       </c>
       <c r="Q2" s="70">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
         <v>100</v>
       </c>
       <c r="Q3" s="70">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>49</v>
@@ -9467,7 +9467,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="46">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>50</v>
@@ -9490,7 +9490,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="44">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>51</v>
@@ -9513,7 +9513,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="46">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="P10" s="69" t="s">
         <v>105</v>
@@ -9574,7 +9574,7 @@
       <c r="B14" s="18"/>
       <c r="P14" s="69"/>
       <c r="Q14" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="B15" s="20"/>
       <c r="P15" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="79">
         <v>0.52</v>
@@ -9614,10 +9614,10 @@
         <v>88</v>
       </c>
       <c r="P16" s="78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="70">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="70">
         <v>0.2</v>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="70">
         <v>0.1</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="70">
         <v>0.08</v>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="70">
         <v>0.05</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="76">
         <v>0</v>
@@ -13477,8 +13477,8 @@
   </sheetPr>
   <dimension ref="A1:S210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="I1" s="53"/>
       <c r="R1" s="67" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="S1" s="68"/>
     </row>
@@ -13523,7 +13523,7 @@
         <v>99</v>
       </c>
       <c r="S2" s="70">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -13534,7 +13534,7 @@
         <v>100</v>
       </c>
       <c r="S3" s="70">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -13593,7 +13593,7 @@
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="44">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>49</v>
@@ -13616,7 +13616,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="46">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>50</v>
@@ -13639,7 +13639,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="44">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="G11" s="45" t="s">
         <v>51</v>
@@ -13662,7 +13662,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="46">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="R12" s="69" t="s">
         <v>107</v>
@@ -13703,14 +13703,14 @@
       <c r="O14" s="30"/>
       <c r="R14" s="69"/>
       <c r="S14" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="R15" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S15" s="79">
         <v>0.52</v>
@@ -13722,10 +13722,10 @@
       </c>
       <c r="B16" s="18"/>
       <c r="R16" s="78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S16" s="70">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -13734,7 +13734,7 @@
       </c>
       <c r="B17" s="20"/>
       <c r="R17" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S17" s="70">
         <v>0.2</v>
@@ -13768,7 +13768,7 @@
         <v>94</v>
       </c>
       <c r="R18" s="78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S18" s="70">
         <v>0.1</v>
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S19" s="70">
         <v>0.08</v>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S20" s="70">
         <v>0.05</v>
@@ -13885,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S21" s="76">
         <v>0</v>

--- a/forms/ModularBudget1-5YrProject.xlsx
+++ b/forms/ModularBudget1-5YrProject.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2010" windowWidth="21600" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="2010" windowWidth="15360" windowHeight="8775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1YearProject" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4YearProject'!$A$1:$O$209</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5YearProject'!$A$1:$Q$211</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -710,7 +710,7 @@
     </r>
   </si>
   <si>
-    <t>Fringe Benefits Rate Non-Sponsored and Sponsored 07/01/2014-06/30/2015</t>
+    <t>Fringe Benefits Rate Non-Sponsored and Sponsored 07/01/2015-06/30/2016</t>
   </si>
 </sst>
 </file>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1631,7 +1631,7 @@
         <v>99</v>
       </c>
       <c r="P2" s="70">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
         <v>100</v>
       </c>
       <c r="P3" s="70">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>49</v>
@@ -1695,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="46">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>50</v>
@@ -1712,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="44">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>51</v>
@@ -1729,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="46">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="O10" s="69" t="s">
         <v>105</v>
@@ -1818,7 +1818,7 @@
         <v>116</v>
       </c>
       <c r="P16" s="70">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -3356,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P208"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3399,7 +3399,7 @@
         <v>99</v>
       </c>
       <c r="P2" s="70">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3410,7 +3410,7 @@
         <v>100</v>
       </c>
       <c r="P3" s="70">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>49</v>
@@ -3467,7 +3467,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="46">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>50</v>
@@ -3486,7 +3486,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="44">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>51</v>
@@ -3505,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="46">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="O10" s="69" t="s">
         <v>105</v>
@@ -3599,7 +3599,7 @@
         <v>116</v>
       </c>
       <c r="P16" s="70">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -5905,7 +5905,7 @@
   <dimension ref="A1:P208"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5947,7 +5947,7 @@
         <v>99</v>
       </c>
       <c r="P2" s="70">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -5958,7 +5958,7 @@
         <v>100</v>
       </c>
       <c r="P3" s="70">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>49</v>
@@ -6019,7 +6019,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="46">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>50</v>
@@ -6040,7 +6040,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="44">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>51</v>
@@ -6061,7 +6061,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="46">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="O10" s="69" t="s">
         <v>105</v>
@@ -6160,7 +6160,7 @@
         <v>116</v>
       </c>
       <c r="P16" s="70">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -9349,7 +9349,7 @@
   <dimension ref="A1:Q208"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9392,7 +9392,7 @@
         <v>99</v>
       </c>
       <c r="Q2" s="70">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
         <v>100</v>
       </c>
       <c r="Q3" s="70">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="44">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>49</v>
@@ -9467,7 +9467,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="46">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>50</v>
@@ -9490,7 +9490,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="44">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>51</v>
@@ -9513,7 +9513,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="46">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P10" s="69" t="s">
         <v>105</v>
@@ -9617,7 +9617,7 @@
         <v>116</v>
       </c>
       <c r="Q16" s="70">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -13477,8 +13477,8 @@
   </sheetPr>
   <dimension ref="A1:S210"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13523,7 +13523,7 @@
         <v>99</v>
       </c>
       <c r="S2" s="70">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -13534,7 +13534,7 @@
         <v>100</v>
       </c>
       <c r="S3" s="70">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -13593,7 +13593,7 @@
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="44">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>49</v>
@@ -13616,7 +13616,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="46">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>50</v>
@@ -13639,7 +13639,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="44">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G11" s="45" t="s">
         <v>51</v>
@@ -13662,7 +13662,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="46">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R12" s="69" t="s">
         <v>107</v>
@@ -13725,7 +13725,7 @@
         <v>116</v>
       </c>
       <c r="S16" s="70">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
